--- a/results/Hypermodel_Results/tuned_cnn_metrics.xlsx
+++ b/results/Hypermodel_Results/tuned_cnn_metrics.xlsx
@@ -411,10 +411,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.9749026395499784</v>
+        <v>0.9820424058848983</v>
       </c>
       <c r="C2">
-        <v>0.9014267185473411</v>
+        <v>0.9092088197146563</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,10 +422,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.9363354037267081</v>
+        <v>0.960222752585521</v>
       </c>
       <c r="C3">
-        <v>0.7937219730941704</v>
+        <v>0.8246445497630331</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -433,10 +433,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.9725806451612903</v>
+        <v>0.9733870967741935</v>
       </c>
       <c r="C4">
-        <v>0.855072463768116</v>
+        <v>0.8405797101449275</v>
       </c>
     </row>
   </sheetData>
